--- a/KSannikov4PandaAiken.xlsx
+++ b/KSannikov4PandaAiken.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sthrace/Desktop/Career New/Panda Aiken Task/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E20094E-EA6C-6C46-A220-F751AD4ECCCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8BF6565-3396-5348-B0F5-176F12294B73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" activeTab="3" xr2:uid="{AABF2E6D-BE2F-F24B-BB2A-A23168E44C8A}"/>
+    <workbookView xWindow="1040" yWindow="1880" windowWidth="28360" windowHeight="15200" activeTab="3" xr2:uid="{AABF2E6D-BE2F-F24B-BB2A-A23168E44C8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset" sheetId="1" r:id="rId1"/>
@@ -1070,7 +1070,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0086EE8F-FBC0-FD47-A907-F675FAAEDB3C}" type="CELLRANGE">
+                    <a:fld id="{5BC6DCC7-DD4B-5040-B9D9-A648F6AD4D02}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1105,7 +1105,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AEA2FEEE-4C91-0644-A657-C97B0F780316}" type="CELLRANGE">
+                    <a:fld id="{0049D1AD-BF84-F541-93C3-DDF4BA3D3B07}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1140,7 +1140,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{27F1BC5C-78C0-5A41-872E-A4D29075C557}" type="CELLRANGE">
+                    <a:fld id="{F414E4F0-96FF-144D-8D32-56907DE22CC5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1175,7 +1175,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{138FF175-999F-3843-A2CB-D9DFB9747077}" type="CELLRANGE">
+                    <a:fld id="{BC493865-23F7-7143-9B39-C702B4E4D291}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1210,7 +1210,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2C0BF05F-5845-D94A-9A2C-932F334A815D}" type="CELLRANGE">
+                    <a:fld id="{B2B35F7A-DC4A-9545-9E9D-033F8FCEDD26}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1245,7 +1245,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C16CC4EC-CB63-1444-90B3-CB8D57D22518}" type="CELLRANGE">
+                    <a:fld id="{4D22C8B8-8E6B-ED48-BBF5-E60B472F0FF9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -69987,7 +69987,7 @@
   <dimension ref="D16"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="101" workbookViewId="0">
-      <selection activeCell="V14" sqref="V14"/>
+      <selection activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
